--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_26_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_26_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56611.09587701502</v>
+        <v>11264306.38109999</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56611.09587701502</v>
+        <v>11264306.38109999</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036773987.277252</v>
+        <v>43543205.675783</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9590.037684040202</v>
+        <v>1096506.779010625</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17608.89552029823</v>
+        <v>1946586.281235126</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25627.2837539999</v>
+        <v>2796665.783459628</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33669.19727514776</v>
+        <v>3646753.315550809</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41711.23193192344</v>
+        <v>4496832.817775311</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49753.17000159981</v>
+        <v>5346912.319999812</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57794.91118218913</v>
+        <v>6196991.822224311</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>65836.74894987777</v>
+        <v>7047071.324448808</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>73878.78360665344</v>
+        <v>7897150.826673307</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>81920.72167632978</v>
+        <v>8747230.328897804</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>89962.65974600612</v>
+        <v>9597309.831122307</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>98004.59781568249</v>
+        <v>10447389.33334682</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>106046.5358853588</v>
+        <v>11297468.83557132</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>114088.4739550352</v>
+        <v>12147548.33779583</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>122130.4120247115</v>
+        <v>12997627.84002034</v>
       </c>
     </row>
   </sheetData>
@@ -27037,25 +27037,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>388</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27064,7 +27064,7 @@
         <v>388</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,19 +27147,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
